--- a/public/report/monitoring/monitoring.xlsx
+++ b/public/report/monitoring/monitoring.xlsx
@@ -8,20 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\golang\src\github.com\bbliong\sim-bmm\public\report\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A9193-D3C2-433A-8098-AD6F304C318F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F2055-0D2E-453A-B387-584F3C8B14E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Monitoring Proposal" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Monitoring Proposal'!$A$1:$AB$4</definedName>
-    <definedName name="asnaf">[1]daftar!$Q$4:$Q$11</definedName>
-    <definedName name="pic_prog">[1]daftar!$P$4:$P$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$4</definedName>
+    <definedName name="Total">OFFSET(Sheet1!$AA$5,1,0,COUNTA(Sheet1!$AA:$AA)-1,1)</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -497,6 +493,30 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -506,34 +526,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -585,167 +581,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="des 2018"/>
-      <sheetName val="DAILY"/>
-      <sheetName val="REPORT W1"/>
-      <sheetName val="daftar"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="list PIC"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="COA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="4">
-          <cell r="P4" t="str">
-            <v>Agus Kalifatullah Sadikin</v>
-          </cell>
-          <cell r="Q4" t="str">
-            <v>FAKIR</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="P5" t="str">
-            <v>Betsy E. Jiesral</v>
-          </cell>
-          <cell r="Q5" t="str">
-            <v>MISKIN</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="P6" t="str">
-            <v>Dewi Kartika</v>
-          </cell>
-          <cell r="Q6" t="str">
-            <v>AMIL</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="P7" t="str">
-            <v>Faddil Suprapto</v>
-          </cell>
-          <cell r="Q7" t="str">
-            <v>MUALAF</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="P8" t="str">
-            <v>Fitri Yulifah</v>
-          </cell>
-          <cell r="Q8" t="str">
-            <v>RIQOB</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="P9" t="str">
-            <v>Hadi Asmadi</v>
-          </cell>
-          <cell r="Q9" t="str">
-            <v>GHORIMIN</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="P10" t="str">
-            <v>Ika Hanif Tyasanti</v>
-          </cell>
-          <cell r="Q10" t="str">
-            <v>FISABILILLAH</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="P11" t="str">
-            <v>M. Ridwan Budianto</v>
-          </cell>
-          <cell r="Q11" t="str">
-            <v>IBN SABIL</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="P12" t="str">
-            <v>Mayang Kartika</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="P13" t="str">
-            <v>Muhammad Afrizal Rizky</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="P14" t="str">
-            <v>Masyitoh Az-Zahro</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="P15" t="str">
-            <v>Prawita Ayu Setyaningtyas</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="P16" t="str">
-            <v>Sahri</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="P17" t="str">
-            <v>Salmon Nugraha</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="P18" t="str">
-            <v>Sepriyanto</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="P19" t="str">
-            <v>Suhito</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="P20" t="str">
-            <v>Vancep Fadilla</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="P21" t="str">
-            <v>Willy Andriani</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="P22" t="str">
-            <v>Yusep Iskandar</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="P23" t="str">
-            <v>Imam Abdullah</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="P24" t="str">
-            <v>Zikrul Husna</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1071,9 +906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA6" sqref="AA6:AA7"/>
+      <selection pane="bottomLeft" activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,66 +948,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
     </row>
     <row r="2" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
       <c r="AC2" s="45"/>
       <c r="AD2" s="45"/>
       <c r="AE2" s="45"/>
@@ -1181,70 +1016,70 @@
       <c r="AH2" s="45"/>
     </row>
     <row r="3" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52" t="s">
+      <c r="L3" s="51"/>
+      <c r="M3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52" t="s">
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="52"/>
-      <c r="S3" s="58" t="s">
+      <c r="R3" s="51"/>
+      <c r="S3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="53" t="s">
+      <c r="T3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="53" t="s">
+      <c r="U3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="53" t="s">
+      <c r="V3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="54" t="s">
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="53" t="s">
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="54" t="s">
         <v>17</v>
       </c>
       <c r="AC3" s="45"/>
@@ -1255,20 +1090,20 @@
       <c r="AH3" s="45"/>
     </row>
     <row r="4" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
       <c r="K4" s="32" t="s">
         <v>9</v>
       </c>
@@ -1293,9 +1128,9 @@
       <c r="R4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="59"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
       <c r="V4" s="33" t="s">
         <v>23</v>
       </c>
@@ -1314,7 +1149,7 @@
       <c r="AA4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="53"/>
+      <c r="AB4" s="54"/>
       <c r="AC4" s="45"/>
       <c r="AD4" s="45"/>
       <c r="AE4" s="45"/>
@@ -1359,39 +1194,36 @@
       <c r="AH5" s="9"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="50" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="59"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
@@ -1400,34 +1232,34 @@
       <c r="AH6" s="9"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="51"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="59"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="18"/>
@@ -1733,6 +1565,16 @@
     <filterColumn colId="26" showButton="0"/>
   </autoFilter>
   <mergeCells count="24">
+    <mergeCell ref="A6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="S1:AB2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="S3:S4"/>
@@ -1747,16 +1589,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="Z3:AA3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5" xr:uid="{00000000-0002-0000-0000-000000000000}">
